--- a/static/attachments/web_test.xlsx
+++ b/static/attachments/web_test.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/attachments/web_test.xlsx
+++ b/static/attachments/web_test.xlsx
@@ -384,7 +384,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
